--- a/model/results/green_ggpos_h2pos/v_inv_tech.xlsx
+++ b/model/results/green_ggpos_h2pos/v_inv_tech.xlsx
@@ -781,19 +781,19 @@
         <v>2022</v>
       </c>
       <c r="B3" t="n">
-        <v>58939477.61194037</v>
+        <v>789788999.9999999</v>
       </c>
       <c r="C3" t="n">
-        <v>58939477.61194038</v>
+        <v>607530000.0000002</v>
       </c>
       <c r="D3" t="n">
-        <v>58939477.61194038</v>
+        <v>607530000.0000002</v>
       </c>
       <c r="E3" t="n">
-        <v>18040410.44776122</v>
+        <v>241741500</v>
       </c>
       <c r="F3" t="n">
-        <v>18040410.44776122</v>
+        <v>241741500</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -805,73 +805,73 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>204749999.9999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>32759999.99999998</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>16379999.99999999</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>26617499.99999999</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>18427499.99999999</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>92137499.99999996</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>163799999.9999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>61424999.99999996</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20474999.99999999</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>106469999.9999999</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>2047499.999999999</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>55282499.99999996</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>40949999.99999998</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>14332499.99999999</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>90089999.99999996</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>75757499.99999996</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>40949999.99999998</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>204749.9999999999</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1023749.999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>24569999.99999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>6142499.999999996</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>55282499.99999996</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>12284999.99999999</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -1174,19 +1174,19 @@
         <v>2025</v>
       </c>
       <c r="B6" t="n">
-        <v>85390460.88754779</v>
+        <v>1408285754.945416</v>
       </c>
       <c r="C6" t="n">
-        <v>85390460.88754781</v>
+        <v>880178596.8408759</v>
       </c>
       <c r="D6" t="n">
-        <v>85390460.88754781</v>
+        <v>880178596.8408759</v>
       </c>
       <c r="E6" t="n">
-        <v>26136623.9598768</v>
+        <v>431053244.3844341</v>
       </c>
       <c r="F6" t="n">
-        <v>26136623.9598768</v>
+        <v>431053244.3844291</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1439,10 +1439,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>899578630.8974178</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>899578630.8974178</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1591,73 +1591,73 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>20551449.69459224</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>3288231.951134759</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1644115.975567379</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>2671688.460296991</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1849630.472513302</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>9248152.362566508</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>16441159.75567379</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6165434.908377672</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>2055144.969459224</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>10686753.84118797</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>205514.4969459224</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>5548891.417539905</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>4110289.938918448</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1438601.478621457</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>9042637.865620587</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>7604036.386999129</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>4110289.938918448</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>20551.44969459224</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>102757.2484729612</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>2466173.963351069</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>616543.4908377673</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>5548891.417539905</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>1233086.981675535</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
@@ -1829,19 +1829,19 @@
         <v>2030</v>
       </c>
       <c r="B11" t="n">
-        <v>902280066.4255809</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>902280066.4255809</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>902280066.4255809</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>276173176.2253203</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>276173176.2253203</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>2036</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>907707299.0842714</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -2624,10 +2624,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>277834363.4079233</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>277834363.4079233</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
